--- a/data/trans_camb/P25A_9_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_9_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,15</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,07</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,2</t>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,47</t>
+          <t>-3,95; 1,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,56</t>
+          <t>-4,79; 0,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,03; 54,79</t>
+          <t>-3,38; 1,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,1</t>
+          <t>-0,67; 3,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,52</t>
+          <t>-0,85; 3,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 34,63</t>
+          <t>-2,57; 1,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,12</t>
+          <t>-2,13; 2,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,84</t>
+          <t>2,29; 8,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 37,32</t>
+          <t>-4,99; 2,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 5,16</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 1,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 0,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 4,8</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,07; 2,21</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 3,56</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-43,52%</t>
+          <t>-45,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1375,34%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,11%</t>
+          <t>51,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>578,35%</t>
+          <t>-7,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,54%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,52%</t>
+          <t>106,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>798,37%</t>
+          <t>-11,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>37,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-15,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>38,41%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,99; 91,91</t>
+          <t>-75,92; 67,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 38,05</t>
+          <t>-83,59; 20,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>540,89; 2931,14</t>
+          <t>-64,59; 105,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 61,27</t>
+          <t>-20,69; 181,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 78,4</t>
+          <t>-22,84; 148,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>339,14; 967,6</t>
+          <t>-42,46; 51,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,48; 40,19</t>
+          <t>-36,5; 67,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 30,01</t>
+          <t>35,53; 238,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>496,46; 1218,92</t>
+          <t>-39,7; 25,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 99,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-45,17; 42,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-47,08; 27,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 149,78</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; 43,13</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 83,3</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>47,25</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>40,46</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>43,09</t>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,41</t>
+          <t>-2,29; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,77</t>
+          <t>-1,28; 1,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,57; 73,16</t>
+          <t>0,16; 4,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,53</t>
+          <t>-2,6; 3,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,13</t>
+          <t>-2,8; 3,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,81; 54,92</t>
+          <t>-4,15; 1,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,54</t>
+          <t>-3,01; 4,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,95</t>
+          <t>0,37; 7,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,09; 55,66</t>
+          <t>-3,87; 6,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,16; 6,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 0,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 2,42</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 4,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 3,94</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 4,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-50,88%</t>
+          <t>-55,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3620,28%</t>
+          <t>130,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>9,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>796,21%</t>
+          <t>-27,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-25,27%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>66,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1346,99%</t>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-32,9%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>78,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-94,36; 111,52</t>
+          <t>-93,26; 76,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,89; 300,9</t>
+          <t>-67,47; 233,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1272,91; 10268,66</t>
+          <t>-1,76; 720,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 43,17</t>
+          <t>-61,74; 169,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 80,63</t>
+          <t>-65,13; 217,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>410,57; 1346,55</t>
+          <t>-56,78; 28,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,08; 26,54</t>
+          <t>-44,92; 96,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 79,3</t>
+          <t>3,63; 179,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>823,5; 2093,24</t>
+          <t>-36,42; 83,88</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-41,49; 95,5</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-62,81; 11,26</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,41; 88,02</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,7; 180,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-29,12; 71,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-30,67; 98,65</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,33</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,39</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,27</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,63</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,0</t>
+          <t>-3,77; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 2,59</t>
+          <t>-5,23; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-5,06; 4,18</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,47; 0,51</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-10,58; 1,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,01; 3,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; 8,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 1,55</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-7,25; 1,03</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 2,91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 2,37</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 4,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>57,07%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-27,68%</t>
+          <t>-28,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-12,24%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-54,02%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-39,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-40,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-25,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-4,69%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-31,74%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-36,89%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-19,21%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-25,59%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-6,26%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,3; 527,45</t>
+          <t>-76,36; 598,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 648,18</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-87,69; 493,34</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-83,97; 10,47</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-75,57; 47,08</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-76,83; 39,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-69,93; 57,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-62,94; 150,81</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-68,72; 37,33</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-70,94; 22,4</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-61,76; 71,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-63,63; 63,91</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-53,55; 112,3</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>-0,45</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>42,81</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>28,34</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>32,74</t>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,8</t>
+          <t>-2,25; 0,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,41</t>
+          <t>-2,48; 0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,5; 55,65</t>
+          <t>-1,1; 2,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 0,56</t>
+          <t>-0,51; 3,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,52</t>
+          <t>-0,72; 2,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,06; 35,26</t>
+          <t>-3,01; 0,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,29</t>
+          <t>-2,06; 1,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,65</t>
+          <t>1,71; 6,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,88; 39,4</t>
+          <t>-3,12; 2,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 4,51</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 0,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 0,72</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,94</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 3,05</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,76%</t>
+          <t>-24,51%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-25,84%</t>
+          <t>-29,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1864,68%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,7%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,11%</t>
+          <t>33,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>511,74%</t>
+          <t>-21,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,64%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>70,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>829,08%</t>
+          <t>-4,53%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-22,06%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>57,6%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 53,73</t>
+          <t>-62,73; 45,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 28,4</t>
+          <t>-66,07; 26,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>957,79; 3019,26</t>
+          <t>-33,58; 118,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,26; 13,03</t>
+          <t>-13,98; 128,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 32,48</t>
+          <t>-20,28; 111,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>331,76; 710,26</t>
+          <t>-43,8; 10,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 10,36</t>
+          <t>-30,97; 38,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-34,39; 19,68</t>
+          <t>24,57; 134,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>613,84; 1117,92</t>
+          <t>-28,05; 26,27</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 72,61</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-43,8; 3,01</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 22,33</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 111,11</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-16,98; 35,12</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 67,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
